--- a/excelimport3.xlsx
+++ b/excelimport3.xlsx
@@ -32,9 +32,6 @@
     <t>Hello</t>
   </si>
   <si>
-    <t>World</t>
-  </si>
-  <si>
     <t>Middle name :</t>
   </si>
   <si>
@@ -44,7 +41,10 @@
     <t>is my Perfect</t>
   </si>
   <si>
-    <t>Earth</t>
+    <t>World 2</t>
+  </si>
+  <si>
+    <t>Earth 2</t>
   </si>
 </sst>
 </file>
@@ -390,7 +390,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -405,7 +405,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -416,10 +416,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -427,7 +427,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
